--- a/xlsx/小聯盟_intext.xlsx
+++ b/xlsx/小聯盟_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國職棒大聯盟</t>
   </si>
   <si>
-    <t>政策_政策_加州_小聯盟</t>
+    <t>体育运动_体育运动_室内美式足球_小聯盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83</t>
